--- a/results/combined_metrics/combined_metrics.xlsx
+++ b/results/combined_metrics/combined_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,62 +1041,217 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Pyongyang</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01008419252201709</v>
+        <v>0.01254330842816009</v>
       </c>
       <c r="C20" t="n">
-        <v>3.572889391064592</v>
+        <v>3.570171403106597</v>
       </c>
       <c r="D20" t="n">
-        <v>3.573667499394453</v>
+        <v>3.575388481487217</v>
       </c>
       <c r="E20" t="n">
-        <v>79.29182870318012</v>
+        <v>196.7148252253775</v>
       </c>
       <c r="F20" t="n">
-        <v>1.043624939714175</v>
+        <v>1.099606518894622</v>
       </c>
       <c r="G20" t="n">
-        <v>3.035290319740569</v>
+        <v>2.418525994217446</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09397056449837855</v>
+        <v>0.3244776607931918</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2125049523837474</v>
+        <v>0.07037259287545687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01008419252201709</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.572889391064592</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.573667499394453</v>
+      </c>
+      <c r="E21" t="n">
+        <v>79.29182870318012</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.043624939714175</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.035290319740569</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09397056449837855</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2125049523837474</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1104591120473964</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.459054146914685</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.466879017452646</v>
+      </c>
+      <c r="E22" t="n">
+        <v>276.4499614495828</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.045081905441198</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.972815695402776</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1660629668776647</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2862130802940513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0054823112962471</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.577966659357831</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.575102969624266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>126.461006238694</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.073878010732365</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.003124869797092</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1005791425357277</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2046581392441982</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0833826640954054</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.49036815688026</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.480784938777981</v>
+      </c>
+      <c r="E24" t="n">
+        <v>130.8837756543872</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.070947180029066</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.706592266879237</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1916994522872792</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08729117916805952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Taipei</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1270694619513982</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.439607924396124</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.465766071814938</v>
+      </c>
+      <c r="E25" t="n">
+        <v>122.6811381101539</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.073748175951919</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.042674731182796</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1249159946236559</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2759576612903226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Ulaanbaatar</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>0.02937628974109463</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>3.551474809712102</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>3.553918348342489</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E26" t="n">
         <v>156.3816529988925</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F26" t="n">
         <v>1.066454917655302</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>2.546426146260813</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>0.2679578400401523</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>0.07900563904224853</v>
       </c>
     </row>
